--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Training material_Veda2.0\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DemoS_012_testing_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A0123-3BF8-47DF-B82E-FBDE56E70AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA614B6-7798-4527-A617-4175149D6A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
     <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
+    <sheet name="Rahul" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="86">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -287,6 +288,9 @@
   </si>
   <si>
     <t>NRG_SOLID</t>
+  </si>
+  <si>
+    <t>TFM_Csets</t>
   </si>
 </sst>
 </file>
@@ -640,7 +644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2561,4 +2567,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E1D244-4169-40AB-8255-ADC3E5DCA494}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95320774-C7C6-438D-AACB-C285E1072EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD813648-A348-4315-B4B6-D104ED1A9770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>*OIL*,*DSL*,*LPG*,*GSL*,*KER*,*OPP*,*HFO*,*NAP*</t>
   </si>
   <si>
-    <t>NRG_PP</t>
-  </si>
-  <si>
     <t>Petroleoum &amp; Products</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>Fuel Consumption Industry Sector</t>
+  </si>
+  <si>
+    <t>NRG_OIL</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +846,10 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
         <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -877,16 +877,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -904,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1232,13 +1232,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1252,10 +1252,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1292,10 +1292,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
@@ -1312,13 +1312,13 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1332,13 +1332,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1352,13 +1352,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
         <v>97</v>
       </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1372,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
         <v>99</v>
       </c>
-      <c r="F24" t="s">
-        <v>100</v>
-      </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1392,13 +1392,13 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="F25" t="s">
-        <v>102</v>
-      </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1412,13 +1412,13 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
         <v>103</v>
       </c>
-      <c r="F26" t="s">
-        <v>104</v>
-      </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1432,13 +1432,13 @@
         <v>59</v>
       </c>
       <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
